--- a/usecase_diagram & usecase_description/use_case_description_최승혁.xlsx
+++ b/usecase_diagram & usecase_description/use_case_description_최승혁.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93b1e4194ffc0e6e/바탕 화면/과제/소공/과제2/RecruitSystem/usecase_diagram ^0 usecase_description/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF23482C-8E3D-4EA2-80CD-768967AE6DF0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1208CA9-54B8-4A06-B7ED-D4FF6509789D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <r>
       <t>[</t>
@@ -489,437 +489,6 @@
       <t>출력</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>특정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>함께</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>항목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>채용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>조기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마감</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>출력</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3266,21 +2835,21 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3296,6 +2865,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3554,10 +3127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3567,182 +3140,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>2</v>
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
